--- a/data/trans_bre/LAWTONB_2R3-Clase-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R3-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.169056627887424</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.398698275040574</v>
+        <v>6.398698275040571</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>2.300662075296674</v>
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7327440266086223</v>
+        <v>0.3298681266691804</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.49734123430422</v>
+        <v>-18.92439687078593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.420858537567366</v>
+        <v>-3.723683829209509</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3621549395722546</v>
+        <v>0.4396626679518156</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1781853401719455</v>
+        <v>-0.2274325673837497</v>
       </c>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>-0.6464498351406931</v>
+        <v>-0.6661042408581281</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.06121913919850595</v>
+        <v>0.008186209787301014</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>31.54926629665993</v>
+        <v>33.52313568654588</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.77609117828029</v>
+        <v>14.45312258690934</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.46351754398066</v>
+        <v>25.12939444996909</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.08663262363286</v>
+        <v>15.1978157306588</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13.95712042205616</v>
+        <v>16.40239233067959</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>12.88066330137724</v>
+        <v>11.47932068316301</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5.341665755238504</v>
+        <v>5.69184699007721</v>
       </c>
     </row>
     <row r="7">
@@ -756,28 +756,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.68656935400398</v>
+        <v>-11.09424272603217</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-10.19000012988679</v>
+        <v>-7.968403157166796</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-11.83002294693603</v>
+        <v>-11.51316933021779</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.640791594630619</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-4.11221392880423</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.6728941782813155</v>
+        <v>-0.623818132140896</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.7302354690402164</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3348290755620351</v>
+        <v>-0.3401990996542675</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +786,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>36.12507795220591</v>
+        <v>36.71284396932464</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>36.00223885693408</v>
+        <v>38.25958325203085</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>34.94416747555311</v>
+        <v>37.62667371643999</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.89450850841116</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>5.992739499798924</v>
-      </c>
+        <v>13.54054885292726</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>5.344649765173465</v>
+        <v>6.594226766050732</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.583212409710829</v>
+        <v>4.515991628502175</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.889896330035101</v>
+        <v>1.926711025715118</v>
       </c>
     </row>
     <row r="10">
@@ -856,28 +852,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.488357407045757</v>
+        <v>-5.479745882017499</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.617592106625673</v>
+        <v>-4.99742394118906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.932550549561657</v>
+        <v>-4.400992557425185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.425300208901423</v>
+        <v>5.075907331878637</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.573842120780048</v>
+        <v>-0.5629671247992374</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.271087375705303</v>
+        <v>-0.3041304170933354</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3720042543597789</v>
+        <v>-0.3727387146513819</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.291680258932298</v>
+        <v>0.3288355735498656</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +884,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>30.41900139640645</v>
+        <v>28.80541139481238</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.62864384053112</v>
+        <v>21.86999389291535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25.09442979681353</v>
+        <v>25.74104837572809</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27.22588828142231</v>
+        <v>27.30777600320764</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.904535087265052</v>
+        <v>4.608795063248654</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.12628417179221</v>
+        <v>2.134835444953065</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.062848887452073</v>
+        <v>3.126118386728738</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.627488484860737</v>
+        <v>2.674984984906051</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +929,7 @@
         <v>5.710184635242157</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.360906418652906</v>
+        <v>-2.360906418652908</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.006701575550759543</v>
@@ -945,7 +941,7 @@
         <v>0.3822951567079123</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.110262726663658</v>
+        <v>-0.1102627266636582</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +952,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.57218431524119</v>
+        <v>-8.114267860687683</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-15.17199212760176</v>
+        <v>-14.76481845618372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.053002190254494</v>
+        <v>-3.185521227473723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.025456413951911</v>
+        <v>-8.913601209584145</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4520053424168868</v>
+        <v>-0.4768369083146246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4942983143909541</v>
+        <v>-0.4823771302862102</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2341058133346941</v>
+        <v>-0.2119999502111919</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3413775108443668</v>
+        <v>-0.3697391030152636</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +984,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.54706806896553</v>
+        <v>9.991654376173088</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.84425938538753</v>
+        <v>11.13858092844016</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.23802627832119</v>
+        <v>18.26199701307765</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.904167625489026</v>
+        <v>4.150001884433617</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7993791930647043</v>
+        <v>0.845343428377522</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4458269365119593</v>
+        <v>0.4736608023550359</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.245315649199064</v>
+        <v>1.419330430013558</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2132937134336564</v>
+        <v>0.2300789664564085</v>
       </c>
     </row>
     <row r="16">
@@ -1056,28 +1052,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.170496662969812</v>
+        <v>0.4838032208569339</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.254606819013804</v>
+        <v>0.2769179626061706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.063407041425254</v>
+        <v>-8.940196766311766</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.356864219837531</v>
+        <v>3.980966549725947</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.002125018963563387</v>
+        <v>-0.03309377494885908</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04664375740914826</v>
+        <v>0.009247922953356805</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3030348150990551</v>
+        <v>-0.3063597858272022</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1588217249644177</v>
+        <v>0.1478707408369354</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1084,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>26.96025781505904</v>
+        <v>25.65987350197972</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.75094243314174</v>
+        <v>21.72758554378393</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.85034984116625</v>
+        <v>10.71970939586329</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.62539025260512</v>
+        <v>20.1254841329431</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4.623022637043935</v>
+        <v>3.668557109816302</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.482453425593227</v>
+        <v>1.423519846871094</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6520775558426174</v>
+        <v>0.5706560612566901</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.220372157458414</v>
+        <v>1.209321530683168</v>
       </c>
     </row>
     <row r="19">
@@ -1154,20 +1150,20 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-78.64061294984486</v>
+        <v>-82.38654731106692</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>19.93239924654701</v>
+        <v>20.08222128194453</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>-66.19438495722335</v>
+        <v>-65.51099787086653</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.6582761018934196</v>
+        <v>-0.6566582076541405</v>
       </c>
     </row>
     <row r="21">
@@ -1178,20 +1174,20 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>19.16521328322012</v>
+        <v>18.94015844828173</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>28.66534155307869</v>
+        <v>29.19791211349994</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>18.10672808024701</v>
+        <v>13.51495824486657</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>1.128007898152908</v>
+        <v>0.5434506016236829</v>
       </c>
     </row>
     <row r="22">
@@ -1215,7 +1211,7 @@
         <v>8.390936699283644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12.53912030600729</v>
+        <v>12.53912030600728</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4423552518428892</v>
@@ -1227,7 +1223,7 @@
         <v>0.5569675755160359</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.787838408657662</v>
+        <v>0.7878384086576613</v>
       </c>
     </row>
     <row r="23">
@@ -1238,28 +1234,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.244433795412995</v>
+        <v>1.421960376238856</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1834180641055349</v>
+        <v>0.647463920984691</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.610742172890011</v>
+        <v>4.137156738034159</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.069676200736028</v>
+        <v>9.213725262522468</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08019595647546343</v>
+        <v>0.07970822503779466</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007534208345954451</v>
+        <v>0.02650483113150064</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1829699025890499</v>
+        <v>0.2354121318762326</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.518427116796931</v>
+        <v>0.5064534580334621</v>
       </c>
     </row>
     <row r="24">
@@ -1270,28 +1266,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.639799354597404</v>
+        <v>10.17833356188803</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.11770709450225</v>
+        <v>10.50975200431914</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.40752847018562</v>
+        <v>12.85469488039742</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.57925857181486</v>
+        <v>15.61292371110702</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8702063622486603</v>
+        <v>0.9467655604458497</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5645484764010963</v>
+        <v>0.5749778878759104</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.033942634070611</v>
+        <v>0.9918553955420096</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.09455780876844</v>
+        <v>1.09880234091401</v>
       </c>
     </row>
     <row r="25">
